--- a/project_doc/ddzs模板消息路由.xlsx
+++ b/project_doc/ddzs模板消息路由.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t xml:space="preserve"> 链接地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,26 +28,46 @@
     <t>/index-ywzx</t>
   </si>
   <si>
-    <t>ROUTE</t>
+    <t>督查组长的首页待审核页面</t>
+  </si>
+  <si>
+    <t>/index</t>
+  </si>
+  <si>
+    <t>督查人员的首页待复查页面</t>
+  </si>
+  <si>
+    <t>督查管理员的待确认页面</t>
+  </si>
+  <si>
+    <t>业务中心人员的首页待反馈</t>
+  </si>
+  <si>
+    <t>/admin-dqr-index</t>
+  </si>
+  <si>
+    <t>移动端ROUTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>督查组长的首页待审核页面</t>
-  </si>
-  <si>
-    <t>/index</t>
-  </si>
-  <si>
-    <t>督查人员的首页待复查页面</t>
-  </si>
-  <si>
-    <t>督查管理员的待确认页面</t>
-  </si>
-  <si>
-    <t>业务中心人员的首页待反馈</t>
-  </si>
-  <si>
-    <t>/admin-dqr-index</t>
+    <t>pc端ROUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ywzx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,80 +481,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="67.25" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
